--- a/test/testNumberInGroup/numberInGroupPerformance.xlsx
+++ b/test/testNumberInGroup/numberInGroupPerformance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="31">
   <si>
     <t>timeLimit</t>
   </si>
@@ -61,6 +61,9 @@
     <t>callNumber20AssetNumberS10M32L5SL3.RData</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>8</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>callNumber10AssetNumberS10M35L5.RData</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
   </si>
   <si>
     <t>80</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
 </sst>
 </file>
@@ -130,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,19 +153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,7 +185,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment wrapText="1"/>
@@ -202,18 +199,430 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="XLConnect.Boolean" xfId="4"/>
@@ -523,15 +932,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="42.85546875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -562,445 +971,927 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.40999999999985398</v>
-      </c>
-      <c r="E2" s="9">
-        <v>396.31636938246601</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0.81459227602136097</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="C2" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="75">
+        <v>0.31000000000131001</v>
+      </c>
+      <c r="E2" s="75">
+        <v>10726.121207848701</v>
+      </c>
+      <c r="F2" s="75">
+        <v>0.81090511175105495</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>10.25</v>
+      </c>
+      <c r="E3" s="9">
+        <v>11826.567691248199</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.80955015743856196</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="15">
+        <v>10.25</v>
+      </c>
+      <c r="E4" s="16">
+        <v>11826.5693691618</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.80955013955233401</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="75">
+        <v>10.2900000000009</v>
+      </c>
+      <c r="E5" s="75">
+        <v>10726.121207848701</v>
+      </c>
+      <c r="F5" s="75">
+        <v>0.81090511175105495</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="75">
+        <v>10.2699999999968</v>
+      </c>
+      <c r="E6" s="75">
+        <v>10726.121207848701</v>
+      </c>
+      <c r="F6" s="75">
+        <v>0.81090511175105495</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="75">
+        <v>0.94000000000232797</v>
+      </c>
+      <c r="E7" s="75">
+        <v>33191.569329165097</v>
+      </c>
+      <c r="F7" s="75">
+        <v>0.51459806233498195</v>
+      </c>
+      <c r="G7" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9">
-        <v>1.78000000000065</v>
-      </c>
-      <c r="E3" s="9">
-        <v>396.31636983588299</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.81459227584802596</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    </row>
+    <row r="8" spans="1:7" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="75">
+        <v>10.979999999999601</v>
+      </c>
+      <c r="E8" s="75">
+        <v>33191.569601047901</v>
+      </c>
+      <c r="F8" s="75">
+        <v>0.51459805814866399</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="22">
+        <v>30.75</v>
+      </c>
+      <c r="E9" s="23">
+        <v>34294.080318871798</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.51292724554429603</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="29">
+        <v>21</v>
+      </c>
+      <c r="E10" s="30">
+        <v>34292.019207054604</v>
+      </c>
+      <c r="F10" s="31">
+        <v>0.51350655530470801</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="75">
+        <v>21.3899999999994</v>
+      </c>
+      <c r="E11" s="75">
+        <v>33191.569480211103</v>
+      </c>
+      <c r="F11" s="75">
+        <v>0.51459806000925001</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="36">
+        <v>20.6399999999994</v>
+      </c>
+      <c r="E12" s="37">
+        <v>34292.019300608103</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0.51350655386421795</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="75">
+        <v>10.740000000001601</v>
+      </c>
+      <c r="E13" s="75">
+        <v>33191.569419792701</v>
+      </c>
+      <c r="F13" s="75">
+        <v>0.51459806093954197</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="43">
+        <v>20.670000000001899</v>
+      </c>
+      <c r="E14" s="44">
+        <v>33432.063343762202</v>
+      </c>
+      <c r="F14" s="45">
+        <v>0.51456167796114405</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="75">
+        <v>11.489999999998</v>
+      </c>
+      <c r="E15" s="75">
+        <v>33191.569480211103</v>
+      </c>
+      <c r="F15" s="75">
+        <v>0.51459806000925001</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="75">
+        <v>10.729999999999601</v>
+      </c>
+      <c r="E16" s="75">
+        <v>33191.569540629498</v>
+      </c>
+      <c r="F16" s="75">
+        <v>0.51459805907895695</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="50">
+        <v>0.30000000000290999</v>
+      </c>
+      <c r="E17" s="51">
+        <v>11826.5709294259</v>
+      </c>
+      <c r="F17" s="52">
+        <v>0.64399580045555405</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="57">
+        <v>10.4199999999983</v>
+      </c>
+      <c r="E18" s="58">
+        <v>11826.5709294259</v>
+      </c>
+      <c r="F18" s="59">
+        <v>0.64399580045555405</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="75">
+        <v>10.289999999993601</v>
+      </c>
+      <c r="E19" s="75">
+        <v>10618.5653671817</v>
+      </c>
+      <c r="F19" s="75">
+        <v>0.63204552754833798</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="64">
+        <v>10.2799999999988</v>
+      </c>
+      <c r="E20" s="65">
+        <v>11826.5709898442</v>
+      </c>
+      <c r="F20" s="66">
+        <v>0.64399579829679598</v>
+      </c>
+      <c r="G20" s="67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="71">
+        <v>10.3399999999965</v>
+      </c>
+      <c r="E21" s="72">
+        <v>11826.571020053399</v>
+      </c>
+      <c r="F21" s="73">
+        <v>0.64399579721741695</v>
+      </c>
+      <c r="G21" s="74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B22" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="75">
+        <v>0.33999999999650798</v>
+      </c>
+      <c r="E22" s="75">
+        <v>10726.121207848701</v>
+      </c>
+      <c r="F22" s="75">
+        <v>0.81090511175105495</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="80">
+        <v>20.3300000000017</v>
+      </c>
+      <c r="E23" s="81">
+        <v>11826.567691248199</v>
+      </c>
+      <c r="F23" s="82">
+        <v>0.80955015743856196</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C24" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="87">
+        <v>30.270000000004099</v>
+      </c>
+      <c r="E24" s="88">
+        <v>11826.5693691618</v>
+      </c>
+      <c r="F24" s="89">
+        <v>0.80955013955233401</v>
+      </c>
+      <c r="G24" s="90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="75">
+        <v>40.4100000000035</v>
+      </c>
+      <c r="E25" s="75">
+        <v>10726.121207848701</v>
+      </c>
+      <c r="F25" s="75">
+        <v>0.81090511175105495</v>
+      </c>
+      <c r="G25" s="75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="75">
+        <v>50.2799999999988</v>
+      </c>
+      <c r="E26" s="75">
+        <v>10726.121207848701</v>
+      </c>
+      <c r="F26" s="75">
+        <v>0.81090511175105495</v>
+      </c>
+      <c r="G26" s="75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="94">
+        <v>0.27999999999883601</v>
+      </c>
+      <c r="E27" s="95">
+        <v>11826.5709294259</v>
+      </c>
+      <c r="F27" s="96">
+        <v>0.64399580045555405</v>
+      </c>
+      <c r="G27" s="97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="101">
+        <v>20.270000000004099</v>
+      </c>
+      <c r="E28" s="102">
+        <v>11826.5709294259</v>
+      </c>
+      <c r="F28" s="103">
+        <v>0.64399580045555405</v>
+      </c>
+      <c r="G28" s="104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="75">
+        <v>30.270000000004099</v>
+      </c>
+      <c r="E29" s="75">
+        <v>10618.5653671817</v>
+      </c>
+      <c r="F29" s="75">
+        <v>0.63204552754833798</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="108">
+        <v>40.300000000002903</v>
+      </c>
+      <c r="E30" s="109">
+        <v>11826.5709898442</v>
+      </c>
+      <c r="F30" s="110">
+        <v>0.64399579829679598</v>
+      </c>
+      <c r="G30" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="115">
+        <v>50.270000000004103</v>
+      </c>
+      <c r="E31" s="116">
+        <v>11826.571020053399</v>
+      </c>
+      <c r="F31" s="117">
+        <v>0.64399579721741695</v>
+      </c>
+      <c r="G31" s="118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="75">
+        <v>1</v>
+      </c>
+      <c r="C32" s="75">
+        <v>10</v>
+      </c>
+      <c r="D32" s="75">
+        <v>0.93999999998777595</v>
+      </c>
+      <c r="E32" s="75">
+        <v>33191.569329165097</v>
+      </c>
+      <c r="F32" s="75">
+        <v>0.51459806233498195</v>
+      </c>
+      <c r="G32" s="75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="75">
+        <v>101</v>
+      </c>
+      <c r="E33" s="75">
+        <v>33191.569601047901</v>
+      </c>
+      <c r="F33" s="75">
+        <v>0.51459805814866399</v>
+      </c>
+      <c r="G33" s="75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="122">
+        <v>61.170000000012799</v>
+      </c>
+      <c r="E34" s="123">
+        <v>34294.080318871798</v>
+      </c>
+      <c r="F34" s="124">
+        <v>0.51292724554429603</v>
+      </c>
+      <c r="G34" s="125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="128" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="129">
+        <v>61.229999999995897</v>
+      </c>
+      <c r="E35" s="130">
+        <v>34292.019207054604</v>
+      </c>
+      <c r="F35" s="131">
+        <v>0.51350655530470801</v>
+      </c>
+      <c r="G35" s="132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="75">
+        <v>81.75</v>
+      </c>
+      <c r="E36" s="75">
+        <v>33191.569480211103</v>
+      </c>
+      <c r="F36" s="75">
+        <v>0.51459806000925001</v>
+      </c>
+      <c r="G36" s="75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="136">
+        <v>100.75</v>
+      </c>
+      <c r="E37" s="137">
+        <v>34292.019300608103</v>
+      </c>
+      <c r="F37" s="138">
+        <v>0.51350655386421795</v>
+      </c>
+      <c r="G37" s="139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="75">
+        <v>60.7799999999988</v>
+      </c>
+      <c r="E38" s="75">
+        <v>33191.569419792701</v>
+      </c>
+      <c r="F38" s="75">
+        <v>0.51459806093954197</v>
+      </c>
+      <c r="G38" s="75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="143">
+        <v>140.82000000000701</v>
+      </c>
+      <c r="E39" s="144">
+        <v>33432.063343762202</v>
+      </c>
+      <c r="F39" s="145">
+        <v>0.51456167796114405</v>
+      </c>
+      <c r="G39" s="146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="75">
+        <v>81.610000000000596</v>
+      </c>
+      <c r="E40" s="75">
+        <v>33191.569480211103</v>
+      </c>
+      <c r="F40" s="75">
+        <v>0.51459806000925001</v>
+      </c>
+      <c r="G40" s="75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9">
-        <v>30.3200000000015</v>
-      </c>
-      <c r="E4" s="9">
-        <v>397.617720955913</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.81373683212750503</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="9">
-        <v>40.329999999999899</v>
-      </c>
-      <c r="E5" s="9">
-        <v>396.31636938246601</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.81459227602136097</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="9">
-        <v>50.3700000000008</v>
-      </c>
-      <c r="E6" s="9">
-        <v>396.31636938246601</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.81459227602136097</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.37999999999919998</v>
-      </c>
-      <c r="E7" s="5">
-        <v>396.31636754091801</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.65342099732186998</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5">
-        <v>20.290000000000902</v>
-      </c>
-      <c r="E8" s="5">
-        <v>396.31636754091801</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.65342099732186998</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5">
-        <v>30.329999999999899</v>
-      </c>
-      <c r="E9" s="5">
-        <v>396.31636754091801</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.65342099732186998</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5">
-        <v>40.360000000000603</v>
-      </c>
-      <c r="E10" s="5">
-        <v>396.31636754091801</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.65342099732186998</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5">
-        <v>50.480000000001397</v>
-      </c>
-      <c r="E11" s="5">
-        <v>396.31636754091801</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.65342099732186998</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2.3600000000005799</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1356.7437690298</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.52116077881626799</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7">
-        <v>101.700000000001</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1356.74377356118</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.521160777420829</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7">
-        <v>43.6299999999992</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1341.3404053885499</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.51640817609536305</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="7">
-        <v>45.670000000000101</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1413.1242575399899</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.51220622941790594</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="7">
-        <v>80.970000000001207</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1356.7437705402599</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.52116077835112196</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="7">
-        <v>101.05000000000101</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1357.8757759079799</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.51494904862825297</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="7">
-        <v>121.19999999999899</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1356.74377356118</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.521160777420829</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="7">
-        <v>71.299999999999301</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1356.7437690298</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0.52116077881626799</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="7">
-        <v>82.189999999998705</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1356.7437705402599</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.52116077835112196</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="C41" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="75">
+        <v>90.889999999999404</v>
+      </c>
+      <c r="E41" s="75">
+        <v>33191.569540629498</v>
+      </c>
+      <c r="F41" s="75">
+        <v>0.51459805907895695</v>
+      </c>
+      <c r="G41" s="75" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>